--- a/Database/Items.xlsx
+++ b/Database/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -530,6 +530,33 @@
   </si>
   <si>
     <t>For Sexual Protection</t>
+  </si>
+  <si>
+    <t>Whey Protein</t>
+  </si>
+  <si>
+    <t>C:\Users\Leul\Downloads\Telegram Desktop\Sophmore\SEM 1\Proj\Database\Pictures\Other1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whey protein is the protein fraction of whey, which is a liquid that separates from milk during cheese production. It is a complete, high-quality protein that contains all of the essential amino acids. It is also very digestible, as it is absorbed from the gut quickly compared to other types of protein </t>
+  </si>
+  <si>
+    <t>Viva Toilet tissue</t>
+  </si>
+  <si>
+    <t>C:\Users\Leul\Downloads\Telegram Desktop\Sophmore\SEM 1\Proj\Database\Pictures\Other2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cleaning &amp; Hygenic (????? ????? ???????), Cleaning Items (???? ????), Toilet Paper</t>
+  </si>
+  <si>
+    <t>BAND-AID</t>
+  </si>
+  <si>
+    <t>C:\Users\Leul\Downloads\Telegram Desktop\Sophmore\SEM 1\Proj\Database\Pictures\Other3.jpg</t>
+  </si>
+  <si>
+    <t>Band-Aid is a brand of adhesive bandages distributed by the American pharmaceutical and medical-devices company Johnson &amp; Johnson. Invented in 1920, the brand has become a generic term for adhesive bandages in countries such as the United States, Canada, Australia, the Philippines, and others.</t>
   </si>
 </sst>
 </file>
@@ -538,11 +565,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,7 +579,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -567,35 +609,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,9 +623,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,14 +648,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,14 +676,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -674,21 +686,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,6 +706,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -708,6 +728,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -717,13 +749,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,55 +869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,91 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,19 +943,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,9 +990,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,151 +1013,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1472,10 +1492,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3082,6 +3102,93 @@
         <v>3</v>
       </c>
     </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56">
+        <v>57.99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56">
+        <v>69</v>
+      </c>
+      <c r="G56" s="1">
+        <v>46209</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57">
+        <v>10000</v>
+      </c>
+      <c r="G57" s="1">
+        <v>402017</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58">
+        <v>100900</v>
+      </c>
+      <c r="G58" s="1">
+        <v>402017</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
